--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Npnt-Itga8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Npnt-Itga8.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6931703333333333</v>
+        <v>1.824961333333333</v>
       </c>
       <c r="H2">
-        <v>2.079511</v>
+        <v>5.474884</v>
       </c>
       <c r="I2">
-        <v>0.2024518202264606</v>
+        <v>0.377840167393297</v>
       </c>
       <c r="J2">
-        <v>0.2024518202264605</v>
+        <v>0.3778401673932969</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N2">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O2">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P2">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q2">
-        <v>0.5841143069035556</v>
+        <v>1.366813307086222</v>
       </c>
       <c r="R2">
-        <v>5.257028762132</v>
+        <v>12.301319763776</v>
       </c>
       <c r="S2">
-        <v>0.01480479008578798</v>
+        <v>0.01972624094485455</v>
       </c>
       <c r="T2">
-        <v>0.01480479008578798</v>
+        <v>0.01972624094485454</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6931703333333333</v>
+        <v>1.824961333333333</v>
       </c>
       <c r="H3">
-        <v>2.079511</v>
+        <v>5.474884</v>
       </c>
       <c r="I3">
-        <v>0.2024518202264606</v>
+        <v>0.377840167393297</v>
       </c>
       <c r="J3">
-        <v>0.2024518202264605</v>
+        <v>0.3778401673932969</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.531081</v>
       </c>
       <c r="O3">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P3">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q3">
-        <v>1.971164086821222</v>
+        <v>5.189630985511556</v>
       </c>
       <c r="R3">
-        <v>17.740476781391</v>
+        <v>46.706678869604</v>
       </c>
       <c r="S3">
-        <v>0.0499605474221856</v>
+        <v>0.07489824009199963</v>
       </c>
       <c r="T3">
-        <v>0.0499605474221856</v>
+        <v>0.07489824009199962</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6931703333333333</v>
+        <v>1.824961333333333</v>
       </c>
       <c r="H4">
-        <v>2.079511</v>
+        <v>5.474884</v>
       </c>
       <c r="I4">
-        <v>0.2024518202264606</v>
+        <v>0.377840167393297</v>
       </c>
       <c r="J4">
-        <v>0.2024518202264605</v>
+        <v>0.3778401673932969</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N4">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O4">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P4">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q4">
-        <v>5.133989872681444</v>
+        <v>18.86602139808667</v>
       </c>
       <c r="R4">
-        <v>46.205908854133</v>
+        <v>169.79419258278</v>
       </c>
       <c r="S4">
-        <v>0.1301246031286817</v>
+        <v>0.2722798218600916</v>
       </c>
       <c r="T4">
-        <v>0.1301246031286817</v>
+        <v>0.2722798218600915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.6931703333333333</v>
+        <v>1.824961333333333</v>
       </c>
       <c r="H5">
-        <v>2.079511</v>
+        <v>5.474884</v>
       </c>
       <c r="I5">
-        <v>0.2024518202264606</v>
+        <v>0.377840167393297</v>
       </c>
       <c r="J5">
-        <v>0.2024518202264605</v>
+        <v>0.3778401673932969</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.430413</v>
+        <v>0.4152066666666667</v>
       </c>
       <c r="N5">
-        <v>1.291239</v>
+        <v>1.24562</v>
       </c>
       <c r="O5">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="P5">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="Q5">
-        <v>0.298349522681</v>
+        <v>0.7577361120088889</v>
       </c>
       <c r="R5">
-        <v>2.685145704129</v>
+        <v>6.81962500808</v>
       </c>
       <c r="S5">
-        <v>0.007561879589805266</v>
+        <v>0.01093586449635123</v>
       </c>
       <c r="T5">
-        <v>0.007561879589805267</v>
+        <v>0.01093586449635123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.445865</v>
       </c>
       <c r="I6">
-        <v>0.04340740723433098</v>
+        <v>0.03077064395059555</v>
       </c>
       <c r="J6">
-        <v>0.04340740723433097</v>
+        <v>0.03077064395059554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N6">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O6">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P6">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q6">
-        <v>0.1252391189311111</v>
+        <v>0.1113108908177778</v>
       </c>
       <c r="R6">
-        <v>1.12715207038</v>
+        <v>1.00179801736</v>
       </c>
       <c r="S6">
-        <v>0.00317427401518908</v>
+        <v>0.001606470642825962</v>
       </c>
       <c r="T6">
-        <v>0.00317427401518908</v>
+        <v>0.001606470642825961</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.445865</v>
       </c>
       <c r="I7">
-        <v>0.04340740723433098</v>
+        <v>0.03077064395059555</v>
       </c>
       <c r="J7">
-        <v>0.04340740723433097</v>
+        <v>0.03077064395059554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.531081</v>
       </c>
       <c r="O7">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P7">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q7">
         <v>0.4226344922294445</v>
@@ -883,10 +883,10 @@
         <v>3.803710430065</v>
       </c>
       <c r="S7">
-        <v>0.01071197001429316</v>
+        <v>0.006099581985411822</v>
       </c>
       <c r="T7">
-        <v>0.01071197001429316</v>
+        <v>0.00609958198541182</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.445865</v>
       </c>
       <c r="I8">
-        <v>0.04340740723433098</v>
+        <v>0.03077064395059555</v>
       </c>
       <c r="J8">
-        <v>0.04340740723433097</v>
+        <v>0.03077064395059554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N8">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O8">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P8">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q8">
-        <v>1.100771476843889</v>
+        <v>1.536415863908333</v>
       </c>
       <c r="R8">
-        <v>9.906943291595001</v>
+        <v>13.827742775175</v>
       </c>
       <c r="S8">
-        <v>0.02789983134206536</v>
+        <v>0.02217399359943512</v>
       </c>
       <c r="T8">
-        <v>0.02789983134206536</v>
+        <v>0.02217399359943511</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.445865</v>
       </c>
       <c r="I9">
-        <v>0.04340740723433098</v>
+        <v>0.03077064395059555</v>
       </c>
       <c r="J9">
-        <v>0.04340740723433097</v>
+        <v>0.03077064395059554</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.430413</v>
+        <v>0.4152066666666667</v>
       </c>
       <c r="N9">
-        <v>1.291239</v>
+        <v>1.24562</v>
       </c>
       <c r="O9">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="P9">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="Q9">
-        <v>0.063968697415</v>
+        <v>0.06170870681111112</v>
       </c>
       <c r="R9">
-        <v>0.575718276735</v>
+        <v>0.5553783613</v>
       </c>
       <c r="S9">
-        <v>0.001621331862783378</v>
+        <v>0.0008905977229226489</v>
       </c>
       <c r="T9">
-        <v>0.001621331862783378</v>
+        <v>0.0008905977229226484</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.566257666666667</v>
+        <v>2.658767</v>
       </c>
       <c r="H10">
-        <v>7.698773</v>
+        <v>7.976300999999999</v>
       </c>
       <c r="I10">
-        <v>0.7495178469170534</v>
+        <v>0.5504713716344166</v>
       </c>
       <c r="J10">
-        <v>0.7495178469170533</v>
+        <v>0.5504713716344165</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N10">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O10">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P10">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q10">
-        <v>2.162510058808444</v>
+        <v>1.991295952229333</v>
       </c>
       <c r="R10">
-        <v>19.462590529276</v>
+        <v>17.921663570064</v>
       </c>
       <c r="S10">
-        <v>0.05481034636658917</v>
+        <v>0.02873895325904334</v>
       </c>
       <c r="T10">
-        <v>0.05481034636658917</v>
+        <v>0.02873895325904333</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.566257666666667</v>
+        <v>2.658767</v>
       </c>
       <c r="H11">
-        <v>7.698773</v>
+        <v>7.976300999999999</v>
       </c>
       <c r="I11">
-        <v>0.7495178469170534</v>
+        <v>0.5504713716344166</v>
       </c>
       <c r="J11">
-        <v>0.7495178469170533</v>
+        <v>0.5504713716344165</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.531081</v>
       </c>
       <c r="O11">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P11">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q11">
-        <v>7.297650673734778</v>
+        <v>7.560718879042333</v>
       </c>
       <c r="R11">
-        <v>65.678856063613</v>
+        <v>68.046469911381</v>
       </c>
       <c r="S11">
-        <v>0.1849641158710592</v>
+        <v>0.1091184593763186</v>
       </c>
       <c r="T11">
-        <v>0.1849641158710592</v>
+        <v>0.1091184593763186</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.566257666666667</v>
+        <v>2.658767</v>
       </c>
       <c r="H12">
-        <v>7.698773</v>
+        <v>7.976300999999999</v>
       </c>
       <c r="I12">
-        <v>0.7495178469170534</v>
+        <v>0.5504713716344166</v>
       </c>
       <c r="J12">
-        <v>0.7495178469170533</v>
+        <v>0.5504713716344165</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N12">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O12">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P12">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q12">
-        <v>19.00707551634655</v>
+        <v>27.48570843575499</v>
       </c>
       <c r="R12">
-        <v>171.063679647119</v>
+        <v>247.371375921795</v>
       </c>
       <c r="S12">
-        <v>0.4817477672408612</v>
+        <v>0.3966816128675</v>
       </c>
       <c r="T12">
-        <v>0.4817477672408612</v>
+        <v>0.3966816128674999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.566257666666667</v>
+        <v>2.658767</v>
       </c>
       <c r="H13">
-        <v>7.698773</v>
+        <v>7.976300999999999</v>
       </c>
       <c r="I13">
-        <v>0.7495178469170534</v>
+        <v>0.5504713716344166</v>
       </c>
       <c r="J13">
-        <v>0.7495178469170533</v>
+        <v>0.5504713716344165</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.430413</v>
+        <v>0.4152066666666667</v>
       </c>
       <c r="N13">
-        <v>1.291239</v>
+        <v>1.24562</v>
       </c>
       <c r="O13">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="P13">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="Q13">
-        <v>1.104550661083</v>
+        <v>1.103937783513333</v>
       </c>
       <c r="R13">
-        <v>9.940955949747</v>
+        <v>9.935440051619999</v>
       </c>
       <c r="S13">
-        <v>0.0279956174385439</v>
+        <v>0.01593234613155472</v>
       </c>
       <c r="T13">
-        <v>0.0279956174385439</v>
+        <v>0.01593234613155472</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01582833333333333</v>
+        <v>0.1976323333333333</v>
       </c>
       <c r="H14">
-        <v>0.047485</v>
+        <v>0.592897</v>
       </c>
       <c r="I14">
-        <v>0.004622925622155151</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="J14">
-        <v>0.00462292562215515</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8426706666666667</v>
+        <v>0.7489546666666667</v>
       </c>
       <c r="N14">
-        <v>2.528012</v>
+        <v>2.246864</v>
       </c>
       <c r="O14">
-        <v>0.07312747333774275</v>
+        <v>0.05220789806691288</v>
       </c>
       <c r="P14">
-        <v>0.07312747333774276</v>
+        <v>0.05220789806691287</v>
       </c>
       <c r="Q14">
-        <v>0.01333807220222222</v>
+        <v>0.1480176583342222</v>
       </c>
       <c r="R14">
-        <v>0.12004264982</v>
+        <v>1.332158925008</v>
       </c>
       <c r="S14">
-        <v>0.0003380628701765186</v>
+        <v>0.002136233220189035</v>
       </c>
       <c r="T14">
-        <v>0.0003380628701765186</v>
+        <v>0.002136233220189035</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01582833333333333</v>
+        <v>0.1976323333333333</v>
       </c>
       <c r="H15">
-        <v>0.047485</v>
+        <v>0.592897</v>
       </c>
       <c r="I15">
-        <v>0.004622925622155151</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="J15">
-        <v>0.00462292562215515</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.531081</v>
       </c>
       <c r="O15">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="P15">
-        <v>0.2467774671835513</v>
+        <v>0.1982273102638064</v>
       </c>
       <c r="Q15">
-        <v>0.04501093125388889</v>
+        <v>0.5620058146285556</v>
       </c>
       <c r="R15">
-        <v>0.405098381285</v>
+        <v>5.058052331657001</v>
       </c>
       <c r="S15">
-        <v>0.001140833876013391</v>
+        <v>0.008111028810076396</v>
       </c>
       <c r="T15">
-        <v>0.001140833876013391</v>
+        <v>0.008111028810076396</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01582833333333333</v>
+        <v>0.1976323333333333</v>
       </c>
       <c r="H16">
-        <v>0.047485</v>
+        <v>0.592897</v>
       </c>
       <c r="I16">
-        <v>0.004622925622155151</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="J16">
-        <v>0.00462292562215515</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.406534333333333</v>
+        <v>10.337765</v>
       </c>
       <c r="N16">
-        <v>22.219603</v>
+        <v>31.013295</v>
       </c>
       <c r="O16">
-        <v>0.6427435573714558</v>
+        <v>0.7206216949842531</v>
       </c>
       <c r="P16">
-        <v>0.6427435573714559</v>
+        <v>0.720621694984253</v>
       </c>
       <c r="Q16">
-        <v>0.1172330942727778</v>
+        <v>2.043076618401666</v>
       </c>
       <c r="R16">
-        <v>1.055097848455</v>
+        <v>18.387689565615</v>
       </c>
       <c r="S16">
-        <v>0.002971355659847652</v>
+        <v>0.02948626665722647</v>
       </c>
       <c r="T16">
-        <v>0.002971355659847652</v>
+        <v>0.02948626665722646</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.01582833333333333</v>
+        <v>0.1976323333333333</v>
       </c>
       <c r="H17">
-        <v>0.047485</v>
+        <v>0.592897</v>
       </c>
       <c r="I17">
-        <v>0.004622925622155151</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="J17">
-        <v>0.00462292562215515</v>
+        <v>0.04091781702169097</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.430413</v>
+        <v>0.4152066666666667</v>
       </c>
       <c r="N17">
-        <v>1.291239</v>
+        <v>1.24562</v>
       </c>
       <c r="O17">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="P17">
-        <v>0.03735150210725013</v>
+        <v>0.02894309668502767</v>
       </c>
       <c r="Q17">
-        <v>0.006812720435</v>
+        <v>0.08205826234888888</v>
       </c>
       <c r="R17">
-        <v>0.061314483915</v>
+        <v>0.73852436114</v>
       </c>
       <c r="S17">
-        <v>0.0001726732161175887</v>
+        <v>0.001184288334199073</v>
       </c>
       <c r="T17">
-        <v>0.0001726732161175887</v>
+        <v>0.001184288334199073</v>
       </c>
     </row>
   </sheetData>
